--- a/data-raw/jayaraman.bamboo.xlsx
+++ b/data-raw/jayaraman.bamboo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33520C40-B0AC-4601-934E-B7C99CDBB7B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921555CF-B38D-48AA-A97C-55745FA626B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{6FF44BF4-A841-480A-9F33-0161B06E98EF}"/>
+    <workbookView xWindow="2860" yWindow="1820" windowWidth="7590" windowHeight="8130" xr2:uid="{6FF44BF4-A841-480A-9F33-0161B06E98EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +165,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -271,7 +271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,12 +427,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -443,7 +443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -472,7 +472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -501,7 +501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -530,7 +530,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -559,7 +559,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -588,7 +588,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -617,7 +617,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -646,7 +646,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -675,7 +675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -704,7 +704,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -733,7 +733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -762,7 +762,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -791,7 +791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -820,7 +820,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -849,7 +849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -878,7 +878,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -907,7 +907,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -936,7 +936,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -965,7 +965,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -994,7 +994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
